--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2041.46427442038</v>
+        <v>-128802.4181436854</v>
       </c>
     </row>
     <row r="7">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="C2" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="D2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="E2" t="n">
         <v>32252.22165943391</v>
-      </c>
-      <c r="E2" t="n">
-        <v>32252.22165943392</v>
       </c>
       <c r="F2" t="n">
         <v>32252.22165943391</v>
@@ -26343,7 +26343,7 @@
         <v>32252.22165943391</v>
       </c>
       <c r="L2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="M2" t="n">
         <v>32252.22165943391</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="E6" t="n">
-        <v>10750.74055314464</v>
+        <v>-4399.933416890137</v>
       </c>
       <c r="F6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="G6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890137</v>
       </c>
       <c r="H6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890137</v>
       </c>
       <c r="I6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="J6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="K6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="L6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890137</v>
       </c>
       <c r="M6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="N6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="O6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="P6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128802.4181436854</v>
+        <v>-14717.55966134688</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="C2" t="n">
         <v>32252.22165943391</v>
@@ -26325,7 +26325,7 @@
         <v>32252.22165943391</v>
       </c>
       <c r="F2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="G2" t="n">
         <v>32252.22165943391</v>
@@ -26334,13 +26334,13 @@
         <v>32252.22165943391</v>
       </c>
       <c r="I2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="J2" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="K2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="L2" t="n">
         <v>32252.22165943391</v>
@@ -26352,7 +26352,7 @@
         <v>32252.22165943391</v>
       </c>
       <c r="O2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="P2" t="n">
         <v>32252.22165943391</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38027.53341689013</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="C6" t="n">
-        <v>-38027.53341689013</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="D6" t="n">
-        <v>-38027.53341689012</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="E6" t="n">
-        <v>-4399.933416890137</v>
+        <v>9235.673156141154</v>
       </c>
       <c r="F6" t="n">
-        <v>-4399.933416890133</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="G6" t="n">
-        <v>-4399.933416890137</v>
+        <v>9235.673156141154</v>
       </c>
       <c r="H6" t="n">
-        <v>-4399.933416890137</v>
+        <v>9235.673156141154</v>
       </c>
       <c r="I6" t="n">
-        <v>-4399.933416890133</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="J6" t="n">
-        <v>-4399.933416890133</v>
+        <v>9235.673156141154</v>
       </c>
       <c r="K6" t="n">
-        <v>-4399.933416890133</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="L6" t="n">
-        <v>-4399.933416890137</v>
+        <v>9235.673156141154</v>
       </c>
       <c r="M6" t="n">
-        <v>-4399.933416890133</v>
+        <v>9235.673156141154</v>
       </c>
       <c r="N6" t="n">
-        <v>-4399.933416890133</v>
+        <v>9235.673156141154</v>
       </c>
       <c r="O6" t="n">
-        <v>-4399.933416890133</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="P6" t="n">
-        <v>-4399.933416890133</v>
+        <v>9235.673156141154</v>
       </c>
     </row>
   </sheetData>
